--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T8/XKBH_DLAnhTuanNB.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T8/XKBH_DLAnhTuanNB.xlsx
@@ -22,14 +22,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$J$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Xuất kho thay thế cho thiết bị chạy STM</t>
+  </si>
+  <si>
+    <t>VT_RES_R0603 0R</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,69 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,16 +1287,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,36 +1413,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,6 +1461,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,6 +1509,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,9 +1543,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,26 +1557,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1578,26 +1602,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,19 +1626,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1675,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1727,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1776,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1828,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1877,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1975,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2024,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2073,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2117,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2191,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,57 +2532,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="116" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="116"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="116"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="116" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="116"/>
+      <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2597,29 +2609,29 @@
       <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="65" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100" t="s">
+      <c r="H8" s="97"/>
+      <c r="I8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="100"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="65" t="s">
         <v>4</v>
       </c>
@@ -2628,86 +2640,86 @@
       <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="64">
         <v>985</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="96" t="s">
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="96"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66">
         <v>2</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="64">
         <v>985</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="96" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="96"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66">
         <v>3</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="64">
         <v>985</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96" t="s">
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="96"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66">
         <v>4</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="64" t="s">
         <v>92</v>
       </c>
@@ -2715,58 +2727,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96" t="s">
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="96"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="97" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="97" t="s">
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="88" t="s">
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="88" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="114"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2829,25 +2841,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="91" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="91" t="s">
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2860,12 +2872,19 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2882,19 +2901,12 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2928,51 +2940,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="116" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="116"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="116"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="116" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="116"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2999,23 +3011,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="104" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="118"/>
-      <c r="J8" s="105"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="104"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3024,46 +3036,46 @@
       <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="118">
         <v>6</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="119" t="s">
+      <c r="G9" s="120"/>
+      <c r="H9" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67">
         <v>2</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="118">
         <v>4</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="119" t="s">
+      <c r="G10" s="120"/>
+      <c r="H10" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="67" t="s">
         <v>114</v>
       </c>
@@ -3072,65 +3084,65 @@
       <c r="A11" s="67">
         <v>3</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="118">
         <v>2</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="119" t="s">
+      <c r="G11" s="120"/>
+      <c r="H11" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
       <c r="K11" s="67" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="97" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="97" t="s">
+      <c r="G13" s="111"/>
+      <c r="H13" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="88" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="88" t="s">
+      <c r="G14" s="114"/>
+      <c r="H14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3185,23 +3197,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="91" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="91" t="s">
+      <c r="G19" s="117"/>
+      <c r="H19" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3214,6 +3226,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B9:D9"/>
@@ -3223,24 +3253,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3255,10 +3267,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3275,39 +3287,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="122" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="129"/>
+      <c r="G2" s="136"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="129" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="129"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="129" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="129"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="5" spans="1:7" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
@@ -3326,11 +3338,11 @@
       <c r="D6" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:7" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
@@ -3363,87 +3375,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="210">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>129</v>
+      <c r="B9" s="210" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="210">
         <v>64</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="211" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="211" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="74">
+        <v>2</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="74">
+        <v>64</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="137" t="s">
+      <c r="B13" s="124"/>
+      <c r="C13" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137" t="s">
+      <c r="D13" s="127"/>
+      <c r="E13" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="76" t="s">
+      <c r="F13" s="127"/>
+      <c r="G13" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135" t="s">
+      <c r="D14" s="125"/>
+      <c r="E14" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="84" t="s">
+      <c r="F14" s="125"/>
+      <c r="G14" s="84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="77"/>
@@ -3464,73 +3484,75 @@
       <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="77"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="138" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138" t="s">
+      <c r="D20" s="128"/>
+      <c r="E20" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="79" t="s">
+      <c r="F20" s="128"/>
+      <c r="G20" s="79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="132" t="s">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+    </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3538,44 +3560,53 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G28" s="73" t="s">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G29" s="73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="J29" s="71" t="s">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="J30" s="71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G31" s="70"/>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G32" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="22">
     <mergeCell ref="C2:E4"/>
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3602,99 +3633,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="142" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="116" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="116"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="116" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="116"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="101" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="95"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="141"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="68" t="s">
         <v>119</v>
       </c>
@@ -3720,36 +3751,36 @@
       <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139" t="s">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139" t="s">
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="139"/>
+      <c r="H9" s="155"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157" t="s">
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="157"/>
+      <c r="H10" s="154"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3762,27 +3793,34 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155" t="s">
+      <c r="B15" s="152"/>
+      <c r="C15" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="155"/>
+      <c r="H15" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3799,13 +3837,6 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3835,8 +3866,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="161" t="s">
         <v>15</v>
       </c>
@@ -3847,8 +3878,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="164"/>
       <c r="D3" s="165"/>
       <c r="E3" s="166"/>
@@ -3857,8 +3888,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="167"/>
       <c r="D4" s="168"/>
       <c r="E4" s="169"/>
@@ -4179,78 +4210,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="183" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184" t="s">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="184" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="178"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4342,58 +4373,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="175" t="s">
+      <c r="F21" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175" t="s">
+      <c r="G21" s="171"/>
+      <c r="H21" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="175" t="s">
+      <c r="I21" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="175" t="s">
+      <c r="J21" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="173" t="s">
+      <c r="K21" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="171" t="s">
+      <c r="L21" s="179" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="179"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="175"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="172"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4438,12 +4469,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="158" t="s">
@@ -4511,74 +4542,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4586,22 +4617,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4618,6 +4633,22 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4650,62 +4681,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="192" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="184" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="184" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="186"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="184" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="186"/>
+      <c r="K4" s="178"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4719,12 +4750,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="194" t="s">
+      <c r="H6" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4754,10 +4785,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="189"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4771,8 +4802,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4786,8 +4817,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="189"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4801,8 +4832,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4816,8 +4847,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4831,8 +4862,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4846,14 +4877,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4861,35 +4892,44 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195" t="s">
+      <c r="F16" s="187"/>
+      <c r="G16" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195" t="s">
+      <c r="H16" s="187"/>
+      <c r="I16" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4901,15 +4941,6 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4949,48 +4980,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="184" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="186"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="184" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="186"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="184" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="186"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5036,11 +5067,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5050,174 +5081,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="202"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="207"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="202"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="202"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="207"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="202"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="207"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="202"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="202"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="202"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="207"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="202"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="202"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="202"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5232,42 +5263,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98" t="s">
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5277,9 +5308,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5289,9 +5320,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5301,9 +5332,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5311,6 +5342,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A2:C4"/>
@@ -5318,38 +5381,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
